--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_019.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_019.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295021AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Feeding and bleeding reactor vessel</t>
-  </si>
-  <si>
-    <t>(700000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) AC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295025EK2.04) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) ARI/RPT/ATWS</t>
-  </si>
-  <si>
-    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
-  </si>
-  <si>
-    <t>(295005AA1.03) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(295027EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Equipment environmental qualifications</t>
-  </si>
-  <si>
-    <t>(295001AK2.01) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
+    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA1.02) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295016AK2.01) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Remote shutdown panel</t>
+  </si>
+  <si>
+    <t>(295004AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Ground isolation/fault determination</t>
+  </si>
+  <si>
+    <t>(295023AK2.09) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Incline fuel/horizontal fuel transfer system (Mark III)</t>
+  </si>
+  <si>
+    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA1.08) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Firefighting equipment used on each class of fire</t>
+  </si>
+  <si>
+    <t>(295019AK2.05) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(295021AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Installing fuel pool gates</t>
+  </si>
+  <si>
+    <t>(700000AK2.02) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Breakers, relays</t>
   </si>
   <si>
     <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
   </si>
   <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
-  </si>
-  <si>
-    <t>(295038EA1.12) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Primary containment system and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295018AA1.03) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Affected systems so as to isolate damaged portions</t>
-  </si>
-  <si>
-    <t>(295037EK2.13) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Systems used for alternate boron injection</t>
-  </si>
-  <si>
-    <t>(600000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Whether malfunction(s) are due to common-mode electrical failures</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295031EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Emergency depressurization</t>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AA1.01) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295037EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Hot shutdown boron weight</t>
+  </si>
+  <si>
+    <t>(295030EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) HPCI shutdown</t>
+  </si>
+  <si>
+    <t>(295027EK2.04) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems.</t>
+  </si>
+  <si>
+    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
   </si>
   <si>
     <t>(295035EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment integrity</t>
   </si>
   <si>
-    <t>(295013AK2.03) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) RCIC/HPCI operation</t>
-  </si>
-  <si>
-    <t>(295010AA2.02) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295009AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295033EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(217000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection</t>
-  </si>
-  <si>
-    <t>(510000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
-  </si>
-  <si>
-    <t>(203000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Emergency generator</t>
-  </si>
-  <si>
-    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
-  </si>
-  <si>
-    <t>(205000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low shutdown cooling suction pressure</t>
-  </si>
-  <si>
-    <t>(215005K3.09) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
+    <t>(295022AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.5 / 45.6) Restoring CRDM cooling/drive water flow</t>
+  </si>
+  <si>
+    <t>(295036EK2.01) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Equipment and floor drain sumps and pumps</t>
+  </si>
+  <si>
+    <t>(295020AA2.10) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor building radiation</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295033EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Systems required to suppress a fire</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
+  </si>
+  <si>
+    <t>(209001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Abnormal differential pressure indication (leak detection)</t>
+  </si>
+  <si>
+    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
   </si>
   <si>
     <t>(215003A4.01) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM recorder indication</t>
   </si>
   <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215004K4.04) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Changing detector position</t>
-  </si>
-  <si>
-    <t>(400000A3.04) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(239002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
-  </si>
-  <si>
-    <t>(264000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) DC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
-  </si>
-  <si>
-    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
-  </si>
-  <si>
-    <t>(223002K3.02) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel cladding temperature</t>
-  </si>
-  <si>
-    <t>(259002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
+    <t>(211000K3.04) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Jet pump differential pressure (BWR 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>(261000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) SGTS train temperature</t>
+  </si>
+  <si>
+    <t>(400000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Radiation monitoring systems</t>
+  </si>
+  <si>
+    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(263000K4.05) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Coping time</t>
+  </si>
+  <si>
+    <t>(217000K2.02) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation/isolation logic</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291007K1.07) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Principles of demineralizer operation</t>
+  </si>
+  <si>
+    <t>(300000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Heat exchangers and condensers</t>
+  </si>
+  <si>
+    <t>(215005K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) OPRM operation</t>
+  </si>
+  <si>
+    <t>(264000A2.13) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of starting air</t>
   </si>
   <si>
     <t>(262001A4.03) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Local operation of breakers</t>
   </si>
   <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291001K1.11) VALVES (CFR: 41.3) Operation of valves and verification of position</t>
-  </si>
-  <si>
-    <t>(261000K4.03) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Moisture removal</t>
-  </si>
-  <si>
-    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(217000K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Remote shutdown system</t>
-  </si>
-  <si>
-    <t>(510000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Intake/traveling screen high differential pressure/ differential level</t>
-  </si>
-  <si>
-    <t>(203000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) ECCS room integrity</t>
-  </si>
-  <si>
-    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
-  </si>
-  <si>
-    <t>(201001K4.12) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Controlling CRD system flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(201005A3.03) Ability to monitor automatic operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.7 / 45.7) Verification of proper functioning/operability </t>
-  </si>
-  <si>
-    <t>(259001K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RCIC system</t>
-  </si>
-  <si>
-    <t>(204000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.5 / 45.3) System temperatures</t>
-  </si>
-  <si>
-    <t>(234000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) RCIS</t>
-  </si>
-  <si>
-    <t>(286000K2.02) (SF8 FPS) FIRE PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Fire pumps</t>
-  </si>
-  <si>
-    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
-  </si>
-  <si>
-    <t>(202001K3.17) Knowledge of the effect that a loss or malfunction of the (SF1, SF4 RS) RECIRCULATION SYSTEM will have on the following systems or system parameters: (CFR: 41.5 to 41.7 / 45.4) Drywell equipment/floor drain sump system</t>
-  </si>
-  <si>
-    <t>(219000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) System flow</t>
-  </si>
-  <si>
-    <t>(226001A4.01) Ability to manually operate and/or monitor the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Pumps</t>
-  </si>
-  <si>
-    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+    <t>(223002K3.19) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment atmosphere sampling</t>
+  </si>
+  <si>
+    <t>(205000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(259002K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor feedwater flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(218000A3.01) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS valves </t>
+  </si>
+  <si>
+    <t>(203000K4.14) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Operation from remote shutdown panel</t>
+  </si>
+  <si>
+    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(209001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(510000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/discharge blockage</t>
+  </si>
+  <si>
+    <t>(204000K4.09) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Leak detection</t>
+  </si>
+  <si>
+    <t>(201003A2.01) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Stuck rod</t>
+  </si>
+  <si>
+    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (291002K1.02) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Temperature/density compensation requirements</t>
+  </si>
+  <si>
+    <t>(256000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.7 / 45.7) Condensate demineralizer system</t>
+  </si>
+  <si>
+    <t>(272000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.4) Effect of hydrogen injection operation on process radiation indications</t>
+  </si>
+  <si>
+    <t>(241000A2.11) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical power</t>
+  </si>
+  <si>
+    <t>(290002K1.21) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection system</t>
+  </si>
+  <si>
+    <t>(290003K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 CRV) CONTROL ROOM VENTILATION will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control room radioactivity</t>
+  </si>
+  <si>
+    <t>(245000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.5 / 45.5) Turbine speed</t>
+  </si>
+  <si>
+    <t>(201005K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and the following systems: (CFR: 41.2 to 41.7 / 45.8) Intermediate range monitor system</t>
+  </si>
+  <si>
+    <t>(219000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
   </si>
   <si>
     <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292005K1.12) CONTROL RODS (CFR: 41.1) Describe effects of deep and shallow control rods on axial and radial flux distribution</t>
-  </si>
-  <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
-  </si>
-  <si>
-    <t>(292008K1.05) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (STARTUP AND APPROACH TO CRITICALITY) Explain characteristics to be observed when the reactor is very close to criticality</t>
-  </si>
-  <si>
-    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293009K1.25) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of local power distribution </t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295006AA2.01) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295014AA2.03) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cause of reactivity addition</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(205000A2.06) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Pump trips </t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209001A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(223001) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(201003A2.08) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Low HCU accumulator pressure or high-level</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292002K1.12) NEUTRON LIFE CYCLE (CFR: 41.1) State the relationship between reactivity and effective multiplication factor</t>
+  </si>
+  <si>
+    <t>(292006K1.14) FISSION PRODUCT POISONS (CFR: 41.1) Explain the process and reasons for the reactor operator to compensate for the time dependent behavior of xenon-135 concentration in the reactor</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(293008K1.01) THERMAL HYDRAULICS (CFR: 41.14) (BOILING HEAT TRANSFER) Distinguish between boiling processes and other heat transfer mechanisms</t>
+  </si>
+  <si>
+    <t>(293006K1.09) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss relationship between pump speed, head, flow, and power without using formulas or calculations</t>
+  </si>
+  <si>
+    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
+  </si>
+  <si>
+    <t>(295002AA2.05) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Condensate temperature</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(211000A2.06) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal valve position </t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400000A2.13) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(230000A2.04) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(234000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FH) FUEL HANDLING: (CFR: 41.5 / 45.3) Spent fuel pool design</t>
+  </si>
+  <si>
+    <t>(202002A2.05) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Scoop tube lockup (BWR 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>K6</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295016</t>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295038</t>
   </si>
   <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
     <t>295035</t>
   </si>
   <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
     <t>295022</t>
   </si>
   <si>
-    <t>295009</t>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
     <t>217000</t>
   </si>
   <si>
-    <t>510000</t>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>218000</t>
   </si>
   <si>
     <t>203000</t>
   </si>
   <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
     <t>215004</t>
   </si>
   <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>201001</t>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>245000</t>
   </si>
   <si>
     <t>201005</t>
   </si>
   <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>204000</t>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>230000</t>
   </si>
   <si>
     <t>234000</t>
   </si>
   <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>272000</t>
+    <t>202002</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D30" t="s">
         <v>112</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>107</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1565,7 +1565,7 @@
         <v>4.2</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D45" t="s">
         <v>107</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
         <v>112</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
         <v>107</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D78" t="s">
         <v>105</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D80" t="s">
         <v>105</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
         <v>105</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2381,7 +2381,7 @@
         <v>4.2</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D85" t="s">
         <v>105</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D88" t="s">
         <v>105</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D90" t="s">
         <v>105</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D92" t="s">
         <v>105</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D94" t="s">
         <v>105</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
